--- a/results/mp/logistic/corona/confidence/168/desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,36 +43,21 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
+    <t>crude</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -88,88 +73,91 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -527,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8527397260273972</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C3">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D3">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -646,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -696,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L6">
+        <v>54</v>
+      </c>
+      <c r="M6">
+        <v>54</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L6">
-        <v>33</v>
-      </c>
-      <c r="M6">
-        <v>33</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9164490861618799</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L7">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M7">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>258</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.9152542372881356</v>
+        <v>0.90625</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5714285714285714</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8936170212765957</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,36 +926,12 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.4901960784313725</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>26</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.8928571428571429</v>
@@ -992,41 +956,17 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.4745762711864407</v>
-      </c>
-      <c r="C11">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>31</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,45 +978,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.4515503875968992</v>
-      </c>
-      <c r="C12">
-        <v>233</v>
-      </c>
-      <c r="D12">
-        <v>233</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>283</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.8867924528301887</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,45 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>114</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.8837209302325582</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,46 +1030,22 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1138888888888889</v>
-      </c>
-      <c r="C14">
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L14">
         <v>41</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>41</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>319</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.8802816901408451</v>
-      </c>
-      <c r="L14">
-        <v>125</v>
-      </c>
-      <c r="M14">
-        <v>125</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1188,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.8625</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1240,12 +1108,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.8620689655172413</v>
@@ -1271,7 +1139,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.8611111111111112</v>
@@ -1297,16 +1165,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1318,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1344,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1370,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.78</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1396,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1422,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.7382352941176471</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L24">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1448,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6949152542372882</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L25">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M25">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1471,15 +1339,15 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>0.6914893617021277</v>
@@ -1505,16 +1373,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6853932584269663</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L27">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="M27">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1526,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.6694560669456067</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1552,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="L29">
         <v>47</v>
       </c>
-      <c r="K29">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L29">
-        <v>40</v>
-      </c>
       <c r="M29">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1578,15 +1446,15 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L30">
         <v>42</v>
@@ -1604,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5294117647058824</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1630,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.410958904109589</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1656,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3846153846153846</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1682,7 +1550,33 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="L34">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>25</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
